--- a/app/config/tables/rastreio/forms/resultado_tdr/resultado_tdr.xlsx
+++ b/app/config/tables/rastreio/forms/resultado_tdr/resultado_tdr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\resultado_tdr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848F1072-281F-4283-8DD7-88111E253F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE600CD-489C-40CD-8E1F-2DB7694F6739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2955" windowWidth="27360" windowHeight="19080" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="3135" windowWidth="27360" windowHeight="18645" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="233">
   <si>
     <t>type</t>
   </si>
@@ -744,6 +744,9 @@
   </si>
   <si>
     <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
+  </si>
+  <si>
+    <t>calculates</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1482,7 @@
   <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
@@ -2951,7 +2954,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3108,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3190,10 +3193,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3810,6 +3813,67 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/app/config/tables/rastreio/forms/resultado_tdr/resultado_tdr.xlsx
+++ b/app/config/tables/rastreio/forms/resultado_tdr/resultado_tdr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\resultado_tdr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE600CD-489C-40CD-8E1F-2DB7694F6739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436943BB-E16D-4762-80F2-C1579F44A6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="3135" windowWidth="27360" windowHeight="18645" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="3135" windowWidth="27360" windowHeight="18645" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="236">
   <si>
     <t>type</t>
   </si>
@@ -369,9 +369,6 @@
     <t>ending</t>
   </si>
   <si>
-    <t>survey_complete</t>
-  </si>
-  <si>
     <t>A exibição agora está completa, por favor, vá para a próxima página para finalizar suas respostas.</t>
   </si>
   <si>
@@ -459,12 +456,6 @@
     <t>id_rastreio</t>
   </si>
   <si>
-    <t>id_rastreio=?</t>
-  </si>
-  <si>
-    <t>[data('id_rastreio')]</t>
-  </si>
-  <si>
     <t>cabezado</t>
   </si>
   <si>
@@ -634,9 +625,6 @@
   </si>
   <si>
     <t>instance_name</t>
-  </si>
-  <si>
-    <t>{date_rastreio: data('date_rastreio'), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), }</t>
   </si>
   <si>
     <t>display.adate.fromYear</t>
@@ -746,7 +734,28 @@
     <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
   </si>
   <si>
-    <t>calculates</t>
+    <t>comentario</t>
+  </si>
+  <si>
+    <t>comentario2</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>id_visita</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>{date_rastreio: data('date_rastreio'), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), rastreioID_completo: data('_id')}</t>
+  </si>
+  <si>
+    <t>_id=?</t>
+  </si>
+  <si>
+    <t>[data('_id')]</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1460,10 +1469,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1479,13 +1488,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -1556,10 +1565,10 @@
         <v>30</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
         <v>33</v>
@@ -1594,104 +1603,104 @@
         <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>221</v>
+      <c r="D4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="M4" s="4"/>
+      <c r="N4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="X4" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>137</v>
+      <c r="K11" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14"/>
+      <c r="C14" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15"/>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16"/>
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1699,17 +1708,16 @@
         <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17"/>
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1717,16 +1725,17 @@
         <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18"/>
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1734,195 +1743,203 @@
         <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="2" t="s">
+    </row>
+    <row r="31" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>53</v>
+      <c r="K36" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="C38" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="J39" s="3"/>
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="D40" s="2" t="s">
+      <c r="B40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="J40" s="3"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="D41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+      <c r="E41" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="O41" s="11"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -1931,9 +1948,7 @@
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -1942,7 +1957,9 @@
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
+      <c r="B44" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -2022,77 +2039,89 @@
       <c r="G52" s="11"/>
       <c r="O52" s="11"/>
     </row>
-    <row r="60" spans="1:17" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="O53" s="11"/>
+    </row>
+    <row r="61" spans="1:17" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E61" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F61" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G61" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="J60" s="13"/>
-      <c r="K60" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="P60"/>
-      <c r="Q60"/>
-    </row>
-    <row r="61" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="J61" s="13"/>
+      <c r="K61" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="P61"/>
       <c r="Q61"/>
     </row>
     <row r="62" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="J62" s="13"/>
       <c r="P62"/>
       <c r="Q62"/>
     </row>
-    <row r="64" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="63" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="13"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+    </row>
+    <row r="65" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="2" t="s">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F71" s="14" t="s">
+      <c r="F72" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G72" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G71" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J71" s="15"/>
-      <c r="P71"/>
-      <c r="Q71"/>
+      <c r="H72" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="J72" s="15"/>
+      <c r="P72"/>
+      <c r="Q72"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2402,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,46 +2454,46 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" s="2">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,9 +2981,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3008,31 +3037,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3131,58 +3160,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3193,10 +3222,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:B89"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3222,7 +3251,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3230,7 +3259,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3326,7 +3355,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3334,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3342,7 +3371,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3350,7 +3379,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3358,7 +3387,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3366,7 +3395,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,7 +3403,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3382,7 +3411,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3390,7 +3419,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3398,7 +3427,7 @@
         <v>59</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3406,7 +3435,7 @@
         <v>59</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3414,7 +3443,7 @@
         <v>62</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3422,7 +3451,7 @@
         <v>62</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3430,7 +3459,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +3467,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,7 +3483,7 @@
         <v>95</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3462,7 +3491,7 @@
         <v>95</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3470,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3478,7 +3507,7 @@
         <v>59</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3486,7 +3515,7 @@
         <v>59</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3502,7 +3531,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3510,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3518,7 +3547,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +3555,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,7 +3563,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3542,7 +3571,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3550,7 +3579,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3558,7 +3587,7 @@
         <v>62</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3566,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3574,7 +3603,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3582,7 +3611,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3590,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3598,7 +3627,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3606,7 +3635,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3614,7 +3643,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3622,7 +3651,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3630,7 +3659,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3638,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3646,7 +3675,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3654,7 +3683,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3662,7 +3691,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3670,7 +3699,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3678,15 +3707,15 @@
         <v>64</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3694,7 +3723,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3702,15 +3731,15 @@
         <v>10</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3718,7 +3747,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,15 +3755,15 @@
         <v>64</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3742,7 +3771,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3750,15 +3779,15 @@
         <v>10</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3766,7 +3795,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3774,7 +3803,7 @@
         <v>62</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3782,7 +3811,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3803,75 +3832,26 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>109</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A81" s="2" t="s">
         <v>230</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/rastreio/forms/resultado_tdr/resultado_tdr.xlsx
+++ b/app/config/tables/rastreio/forms/resultado_tdr/resultado_tdr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\resultado_tdr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436943BB-E16D-4762-80F2-C1579F44A6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477F1F00-7815-49E4-BA01-9705E3B3CA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="3135" windowWidth="27360" windowHeight="18645" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
